--- a/result/relative error.xlsx
+++ b/result/relative error.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="44">
   <si>
     <t>are</t>
   </si>
@@ -164,9 +164,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -255,10 +261,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -270,29 +298,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1768,25 +1787,25 @@
             <c:numRef>
               <c:f>Sheet2!$I$132:$I$137</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.3784999999999994E-2</c:v>
+                  <c:v>0.12730154599999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0308999999999996E-2</c:v>
+                  <c:v>0.110807012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6296999999999999E-2</c:v>
+                  <c:v>0.12523478800000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1253000000000002E-2</c:v>
+                  <c:v>0.122505633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5435000000000002E-2</c:v>
+                  <c:v>0.12894213900000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5076999999999996E-2</c:v>
+                  <c:v>0.12826991400000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,7 +1871,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$132:$J$137</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.121119</c:v>
@@ -1966,7 +1985,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2233,37 +2252,37 @@
             <c:numRef>
               <c:f>Sheet2!$N$172:$N$181</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1340983</c:v>
+                  <c:v>0.26819660000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.149758</c:v>
+                  <c:v>0.299516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0644910000000001E-2</c:v>
+                  <c:v>0.1012898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1058014</c:v>
+                  <c:v>0.21160290000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8788070000000007E-3</c:v>
+                  <c:v>1.775761E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7609250000000002E-3</c:v>
+                  <c:v>1.684567E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9179180000000001E-2</c:v>
+                  <c:v>3.8358360000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.06542E-2</c:v>
+                  <c:v>6.1308399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.393611E-2</c:v>
+                  <c:v>4.787222E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10513400000000001</c:v>
+                  <c:v>0.21026790000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2466,7 +2485,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2737,37 +2756,37 @@
             <c:numRef>
               <c:f>Sheet2!$T$172:$T$181</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1063124</c:v>
+                  <c:v>0.2126247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3088039999999997E-2</c:v>
+                  <c:v>0.18617610000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1588936</c:v>
+                  <c:v>0.1312449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7722949999999994E-2</c:v>
+                  <c:v>0.17544589999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8540500000000001E-2</c:v>
+                  <c:v>3.7081000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9558269999999999E-2</c:v>
+                  <c:v>3.9116539999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.481529E-2</c:v>
+                  <c:v>4.9630590000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.677763E-2</c:v>
+                  <c:v>5.3555249999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6061070000000001E-2</c:v>
+                  <c:v>7.2122140000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1313164</c:v>
+                  <c:v>0.15107300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2970,7 +2989,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3241,37 +3260,37 @@
             <c:numRef>
               <c:f>Sheet2!$AG$171:$AG$180</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13343949999999999</c:v>
+                  <c:v>0.26687889999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32773849999999999</c:v>
+                  <c:v>0.21944949999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3974260000000005E-2</c:v>
+                  <c:v>0.12794849999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1040697</c:v>
+                  <c:v>0.20813950000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4035910000000001E-2</c:v>
+                  <c:v>4.8071830000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3217979999999999E-2</c:v>
+                  <c:v>4.6435959999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.350938E-2</c:v>
+                  <c:v>4.9446190000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2250929999999997E-2</c:v>
+                  <c:v>6.4501859999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9008969999999999E-2</c:v>
+                  <c:v>5.8017939999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1728869999999995E-2</c:v>
+                  <c:v>0.16345770000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3474,7 +3493,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3745,37 +3764,37 @@
             <c:numRef>
               <c:f>Sheet2!$AQ$171:$AQ$180</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1124883</c:v>
+                  <c:v>0.2249767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12225750000000001</c:v>
+                  <c:v>0.24451500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0326400000000006E-2</c:v>
+                  <c:v>0.16065280000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9259820000000004E-2</c:v>
+                  <c:v>0.1785196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.864327E-2</c:v>
+                  <c:v>3.7286529999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8208329999999998E-2</c:v>
+                  <c:v>3.6416650000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6567629999999998E-2</c:v>
+                  <c:v>5.3135269999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.529997E-2</c:v>
+                  <c:v>7.0599930000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4182129999999998E-2</c:v>
+                  <c:v>6.8364250000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5294780000000006E-2</c:v>
+                  <c:v>0.15058959999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,7 +3997,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4249,37 +4268,37 @@
             <c:numRef>
               <c:f>Sheet2!$BB$170:$BB$179</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6517000000000006E-2</c:v>
+                  <c:v>0.19303400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1777349</c:v>
+                  <c:v>0.23765539999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3500339999999997E-2</c:v>
+                  <c:v>0.14700070000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7486849999999996E-2</c:v>
+                  <c:v>0.15497369999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3284010000000003E-2</c:v>
+                  <c:v>6.6568020000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2857230000000004E-2</c:v>
+                  <c:v>6.4253350000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4418020000000001E-2</c:v>
+                  <c:v>6.8836040000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3482190000000002E-2</c:v>
+                  <c:v>6.6964380000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1431490000000003E-2</c:v>
+                  <c:v>0.102863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3636410000000003E-2</c:v>
+                  <c:v>0.18727279999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,7 +4501,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4753,37 +4772,37 @@
             <c:numRef>
               <c:f>Sheet2!$BN$169:$BN$178</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1052405</c:v>
+                  <c:v>0.210481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11119039999999999</c:v>
+                  <c:v>0.22238079999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9382680000000002E-2</c:v>
+                  <c:v>0.13876540000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6358279999999996E-2</c:v>
+                  <c:v>0.1727166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8830759999999999E-2</c:v>
+                  <c:v>7.7661510000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.54953E-2</c:v>
+                  <c:v>6.5789710000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6115479999999998E-2</c:v>
+                  <c:v>7.2230959999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9616930000000002E-2</c:v>
+                  <c:v>7.9233869999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2770849999999999E-2</c:v>
+                  <c:v>8.5541690000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5770390000000002E-2</c:v>
+                  <c:v>0.1578976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4986,7 +5005,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5545,6 +5564,591 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Линеарна регресија</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$25:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43.544690000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.697959999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>114.4606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.410790000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.0136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>127.6473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E256-42AD-9808-1B0A80499D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Стохастичка линеарна регресија</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$25:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>66.617930000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.22067999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.98505</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.32744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.61843999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.85746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E256-42AD-9808-1B0A80499D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Стабла одлучивања</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$25:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>57.524090000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.396119999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.60509999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.263329999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112.7208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.60420000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E256-42AD-9808-1B0A80499D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Предложена метода</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$25:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$25:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>88.960579999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108.94280000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.11320000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.5754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.45570000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>177.5384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E256-42AD-9808-1B0A80499D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="364599536"/>
+        <c:axId val="364599208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="364599536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364599208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364599208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364599536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -6341,6 +6945,591 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="460949136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Линеарна регресија</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$37:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$37:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.59884</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.934685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.69863</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6839390000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.619529999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.298109999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EF1-40B4-B6FC-74F2EE04FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Стохастичка линеарна регресија</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$37:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$37:$J$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.1619810000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.925630999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.449299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.761267999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.950571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.298776999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EF1-40B4-B6FC-74F2EE04FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Стабла одлучивања</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$37:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$37:$K$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.5844639999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7975060000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.079940000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8466559999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.617010000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.70534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1EF1-40B4-B6FC-74F2EE04FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Предложена метода</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$H$37:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$37:$L$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.4318919999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.437568000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.042745</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.750598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.170256999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.324353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1EF1-40B4-B6FC-74F2EE04FA8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="364603144"/>
+        <c:axId val="364602488"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="364603144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364602488"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="364602488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="364603144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7385,37 +8574,37 @@
             <c:numRef>
               <c:f>Sheet1!$D$90:$D$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1340983</c:v>
+                  <c:v>0.26819660000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.149758</c:v>
+                  <c:v>0.299516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0644910000000001E-2</c:v>
+                  <c:v>0.1012898</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1058014</c:v>
+                  <c:v>0.21160290000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8788070000000007E-3</c:v>
+                  <c:v>1.775761E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7609250000000002E-3</c:v>
+                  <c:v>1.684567E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9179180000000001E-2</c:v>
+                  <c:v>3.8358360000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.06542E-2</c:v>
+                  <c:v>6.1308399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.393611E-2</c:v>
+                  <c:v>4.787222E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10513400000000001</c:v>
+                  <c:v>0.21026790000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7495,37 +8684,37 @@
             <c:numRef>
               <c:f>Sheet1!$E$90:$E$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1063124</c:v>
+                  <c:v>0.2126247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3088039999999997E-2</c:v>
+                  <c:v>0.18617610000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1588936</c:v>
+                  <c:v>0.1312449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7722949999999994E-2</c:v>
+                  <c:v>0.17544589999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8540500000000001E-2</c:v>
+                  <c:v>3.7081000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9558269999999999E-2</c:v>
+                  <c:v>3.9116539999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.481529E-2</c:v>
+                  <c:v>4.9630590000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.677763E-2</c:v>
+                  <c:v>5.3555249999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6061070000000001E-2</c:v>
+                  <c:v>7.2122140000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1313164</c:v>
+                  <c:v>0.15107300000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7605,37 +8794,37 @@
             <c:numRef>
               <c:f>Sheet1!$F$90:$F$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13343949999999999</c:v>
+                  <c:v>0.26687889999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32773849999999999</c:v>
+                  <c:v>0.21944949999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3974260000000005E-2</c:v>
+                  <c:v>0.12794849999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1040697</c:v>
+                  <c:v>0.20813950000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4035910000000001E-2</c:v>
+                  <c:v>4.8071830000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3217979999999999E-2</c:v>
+                  <c:v>4.6435959999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.350938E-2</c:v>
+                  <c:v>4.9446190000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2250929999999997E-2</c:v>
+                  <c:v>6.4501859999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9008969999999999E-2</c:v>
+                  <c:v>5.8017939999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.1728869999999995E-2</c:v>
+                  <c:v>0.16345770000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7715,37 +8904,37 @@
             <c:numRef>
               <c:f>Sheet1!$G$90:$G$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1124883</c:v>
+                  <c:v>0.2249767</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12225750000000001</c:v>
+                  <c:v>0.24451500000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0326400000000006E-2</c:v>
+                  <c:v>0.16065280000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9259820000000004E-2</c:v>
+                  <c:v>0.1785196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.864327E-2</c:v>
+                  <c:v>3.7286529999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8208329999999998E-2</c:v>
+                  <c:v>3.6416650000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6567629999999998E-2</c:v>
+                  <c:v>5.3135269999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.529997E-2</c:v>
+                  <c:v>7.0599930000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4182129999999998E-2</c:v>
+                  <c:v>6.8364250000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5294780000000006E-2</c:v>
+                  <c:v>0.15058959999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7825,37 +9014,37 @@
             <c:numRef>
               <c:f>Sheet1!$H$90:$H$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9.6517000000000006E-2</c:v>
+                  <c:v>0.19303400000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1777349</c:v>
+                  <c:v>0.23765539999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3500339999999997E-2</c:v>
+                  <c:v>0.14700070000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.7486849999999996E-2</c:v>
+                  <c:v>0.15497369999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3284010000000003E-2</c:v>
+                  <c:v>6.6568020000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.2857230000000004E-2</c:v>
+                  <c:v>6.4253350000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4418020000000001E-2</c:v>
+                  <c:v>6.8836040000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3482190000000002E-2</c:v>
+                  <c:v>6.6964380000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1431490000000003E-2</c:v>
+                  <c:v>0.102863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3636410000000003E-2</c:v>
+                  <c:v>0.18727279999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7935,37 +9124,37 @@
             <c:numRef>
               <c:f>Sheet1!$I$90:$I$99</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1052405</c:v>
+                  <c:v>0.210481</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11119039999999999</c:v>
+                  <c:v>0.22238079999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.9382680000000002E-2</c:v>
+                  <c:v>0.13876540000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6358279999999996E-2</c:v>
+                  <c:v>0.1727166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8830759999999999E-2</c:v>
+                  <c:v>7.7661510000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.54953E-2</c:v>
+                  <c:v>6.5789710000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6115479999999998E-2</c:v>
+                  <c:v>7.2230959999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9616930000000002E-2</c:v>
+                  <c:v>7.9233869999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2770849999999999E-2</c:v>
+                  <c:v>8.5541690000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5770390000000002E-2</c:v>
+                  <c:v>0.1578976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8061,7 +9250,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9368,7 +10557,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$53:$I$58</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.109273</c:v>
@@ -9452,7 +10641,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$53:$J$58</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.121119</c:v>
@@ -9536,7 +10725,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$53:$K$58</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.13368849999999999</c:v>
@@ -9650,7 +10839,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9899,7 +11088,7 @@
             <c:numRef>
               <c:f>Sheet2!$I$72:$I$77</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40.934579999999997</c:v>
@@ -9983,7 +11172,7 @@
             <c:numRef>
               <c:f>Sheet2!$J$72:$J$77</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41.39864</c:v>
@@ -10067,7 +11256,7 @@
             <c:numRef>
               <c:f>Sheet2!$K$72:$K$77</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41.109160000000003</c:v>
@@ -10181,7 +11370,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11140,7 +12329,87 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16503,8 +17772,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16612,11 +17881,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -16627,11 +17891,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -16663,9 +17922,1025 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -21113,6 +23388,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>546846</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>242046</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>502023</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -21381,8 +23716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q99"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39:H49"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21767,21 +24102,21 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -22160,30 +24495,30 @@
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
@@ -22557,19 +24892,19 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -22601,7 +24936,7 @@
         <v>9.4318919999999995</v>
       </c>
       <c r="F79">
-        <v>6.3784583000000006E-2</v>
+        <v>0.12730154599999999</v>
       </c>
       <c r="G79">
         <v>41.43741</v>
@@ -22618,7 +24953,7 @@
         <v>10.437568000000001</v>
       </c>
       <c r="F80">
-        <v>7.0308615000000005E-2</v>
+        <v>0.110807012</v>
       </c>
       <c r="G80">
         <v>41.486449999999998</v>
@@ -22635,7 +24970,7 @@
         <v>13.042745</v>
       </c>
       <c r="F81">
-        <v>8.6297399999999996E-2</v>
+        <v>0.12523478800000001</v>
       </c>
       <c r="G81">
         <v>43.185600000000001</v>
@@ -22652,7 +24987,7 @@
         <v>10.750598</v>
       </c>
       <c r="F82">
-        <v>6.1252813000000003E-2</v>
+        <v>0.122505633</v>
       </c>
       <c r="G82">
         <v>42.956609999999998</v>
@@ -22669,7 +25004,7 @@
         <v>13.170256999999999</v>
       </c>
       <c r="F83">
-        <v>7.5434844000000001E-2</v>
+        <v>0.12894213900000001</v>
       </c>
       <c r="G83">
         <v>41.812719999999999</v>
@@ -22686,29 +25021,29 @@
         <v>13.324353</v>
       </c>
       <c r="F84">
-        <v>6.5077156999999997E-2</v>
+        <v>0.12826991400000001</v>
       </c>
       <c r="G84">
         <v>42.890059999999998</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D89" s="18">
+      <c r="D89" s="11">
         <v>0.05</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="11">
         <v>0.1</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="11">
         <v>0.15</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="11">
         <v>0.2</v>
       </c>
-      <c r="H89" s="18">
+      <c r="H89" s="11">
         <v>0.25</v>
       </c>
-      <c r="I89" s="18">
+      <c r="I89" s="11">
         <v>0.3</v>
       </c>
     </row>
@@ -22716,230 +25051,230 @@
       <c r="C90" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="19">
-        <v>0.1340983</v>
-      </c>
-      <c r="E90" s="19">
-        <v>0.1063124</v>
-      </c>
-      <c r="F90" s="19">
-        <v>0.13343949999999999</v>
-      </c>
-      <c r="G90" s="19">
-        <v>0.1124883</v>
-      </c>
-      <c r="H90" s="19">
-        <v>9.6517000000000006E-2</v>
-      </c>
-      <c r="I90" s="19">
-        <v>0.1052405</v>
+      <c r="D90">
+        <v>0.26819660000000001</v>
+      </c>
+      <c r="E90">
+        <v>0.2126247</v>
+      </c>
+      <c r="F90">
+        <v>0.26687889999999997</v>
+      </c>
+      <c r="G90">
+        <v>0.2249767</v>
+      </c>
+      <c r="H90">
+        <v>0.19303400000000001</v>
+      </c>
+      <c r="I90">
+        <v>0.210481</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="19">
-        <v>0.149758</v>
-      </c>
-      <c r="E91" s="19">
-        <v>9.3088039999999997E-2</v>
-      </c>
-      <c r="F91" s="19">
-        <v>0.32773849999999999</v>
-      </c>
-      <c r="G91" s="19">
-        <v>0.12225750000000001</v>
-      </c>
-      <c r="H91" s="19">
-        <v>0.1777349</v>
-      </c>
-      <c r="I91" s="19">
-        <v>0.11119039999999999</v>
+      <c r="D91">
+        <v>0.299516</v>
+      </c>
+      <c r="E91">
+        <v>0.18617610000000001</v>
+      </c>
+      <c r="F91">
+        <v>0.21944949999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.24451500000000001</v>
+      </c>
+      <c r="H91">
+        <v>0.23765539999999999</v>
+      </c>
+      <c r="I91">
+        <v>0.22238079999999999</v>
       </c>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="19">
-        <v>5.0644910000000001E-2</v>
-      </c>
-      <c r="E92" s="19">
-        <v>0.1588936</v>
-      </c>
-      <c r="F92" s="19">
-        <v>6.3974260000000005E-2</v>
-      </c>
-      <c r="G92" s="19">
-        <v>8.0326400000000006E-2</v>
-      </c>
-      <c r="H92" s="19">
-        <v>7.3500339999999997E-2</v>
-      </c>
-      <c r="I92" s="19">
-        <v>6.9382680000000002E-2</v>
+      <c r="D92">
+        <v>0.1012898</v>
+      </c>
+      <c r="E92">
+        <v>0.1312449</v>
+      </c>
+      <c r="F92">
+        <v>0.12794849999999999</v>
+      </c>
+      <c r="G92">
+        <v>0.16065280000000001</v>
+      </c>
+      <c r="H92">
+        <v>0.14700070000000001</v>
+      </c>
+      <c r="I92">
+        <v>0.13876540000000001</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="19">
-        <v>0.1058014</v>
-      </c>
-      <c r="E93" s="19">
-        <v>8.7722949999999994E-2</v>
-      </c>
-      <c r="F93" s="19">
-        <v>0.1040697</v>
-      </c>
-      <c r="G93" s="19">
-        <v>8.9259820000000004E-2</v>
-      </c>
-      <c r="H93" s="19">
-        <v>7.7486849999999996E-2</v>
-      </c>
-      <c r="I93" s="19">
-        <v>8.6358279999999996E-2</v>
+      <c r="D93">
+        <v>0.21160290000000001</v>
+      </c>
+      <c r="E93">
+        <v>0.17544589999999999</v>
+      </c>
+      <c r="F93">
+        <v>0.20813950000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.1785196</v>
+      </c>
+      <c r="H93">
+        <v>0.15497369999999999</v>
+      </c>
+      <c r="I93">
+        <v>0.1727166</v>
       </c>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="19">
-        <v>8.8788070000000007E-3</v>
-      </c>
-      <c r="E94" s="19">
-        <v>1.8540500000000001E-2</v>
-      </c>
-      <c r="F94" s="19">
-        <v>2.4035910000000001E-2</v>
-      </c>
-      <c r="G94" s="19">
-        <v>1.864327E-2</v>
-      </c>
-      <c r="H94" s="19">
-        <v>3.3284010000000003E-2</v>
-      </c>
-      <c r="I94" s="19">
-        <v>3.8830759999999999E-2</v>
+      <c r="D94">
+        <v>1.775761E-2</v>
+      </c>
+      <c r="E94">
+        <v>3.7081000000000003E-2</v>
+      </c>
+      <c r="F94">
+        <v>4.8071830000000003E-2</v>
+      </c>
+      <c r="G94">
+        <v>3.7286529999999998E-2</v>
+      </c>
+      <c r="H94">
+        <v>6.6568020000000006E-2</v>
+      </c>
+      <c r="I94">
+        <v>7.7661510000000003E-2</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="19">
-        <v>9.7609250000000002E-3</v>
-      </c>
-      <c r="E95" s="19">
-        <v>1.9558269999999999E-2</v>
-      </c>
-      <c r="F95" s="19">
-        <v>2.3217979999999999E-2</v>
-      </c>
-      <c r="G95" s="19">
-        <v>1.8208329999999998E-2</v>
-      </c>
-      <c r="H95" s="19">
-        <v>8.2857230000000004E-2</v>
-      </c>
-      <c r="I95" s="19">
-        <v>3.54953E-2</v>
+      <c r="D95">
+        <v>1.684567E-2</v>
+      </c>
+      <c r="E95">
+        <v>3.9116539999999998E-2</v>
+      </c>
+      <c r="F95">
+        <v>4.6435959999999998E-2</v>
+      </c>
+      <c r="G95">
+        <v>3.6416650000000002E-2</v>
+      </c>
+      <c r="H95">
+        <v>6.4253350000000001E-2</v>
+      </c>
+      <c r="I95">
+        <v>6.5789710000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="19">
-        <v>1.9179180000000001E-2</v>
-      </c>
-      <c r="E96" s="19">
-        <v>2.481529E-2</v>
-      </c>
-      <c r="F96" s="19">
-        <v>4.350938E-2</v>
-      </c>
-      <c r="G96" s="19">
-        <v>2.6567629999999998E-2</v>
-      </c>
-      <c r="H96" s="19">
-        <v>3.4418020000000001E-2</v>
-      </c>
-      <c r="I96" s="19">
-        <v>3.6115479999999998E-2</v>
+      <c r="D96">
+        <v>3.8358360000000001E-2</v>
+      </c>
+      <c r="E96">
+        <v>4.9630590000000002E-2</v>
+      </c>
+      <c r="F96">
+        <v>4.9446190000000001E-2</v>
+      </c>
+      <c r="G96">
+        <v>5.3135269999999998E-2</v>
+      </c>
+      <c r="H96">
+        <v>6.8836040000000001E-2</v>
+      </c>
+      <c r="I96">
+        <v>7.2230959999999997E-2</v>
       </c>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="19">
-        <v>3.06542E-2</v>
-      </c>
-      <c r="E97" s="19">
-        <v>2.677763E-2</v>
-      </c>
-      <c r="F97" s="19">
-        <v>3.2250929999999997E-2</v>
-      </c>
-      <c r="G97" s="19">
-        <v>3.529997E-2</v>
-      </c>
-      <c r="H97" s="19">
-        <v>3.3482190000000002E-2</v>
-      </c>
-      <c r="I97" s="19">
-        <v>3.9616930000000002E-2</v>
+      <c r="D97">
+        <v>6.1308399999999999E-2</v>
+      </c>
+      <c r="E97">
+        <v>5.3555249999999999E-2</v>
+      </c>
+      <c r="F97">
+        <v>6.4501859999999994E-2</v>
+      </c>
+      <c r="G97">
+        <v>7.0599930000000005E-2</v>
+      </c>
+      <c r="H97">
+        <v>6.6964380000000004E-2</v>
+      </c>
+      <c r="I97">
+        <v>7.9233869999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="19">
-        <v>2.393611E-2</v>
-      </c>
-      <c r="E98" s="19">
-        <v>3.6061070000000001E-2</v>
-      </c>
-      <c r="F98" s="19">
-        <v>2.9008969999999999E-2</v>
-      </c>
-      <c r="G98" s="19">
-        <v>3.4182129999999998E-2</v>
-      </c>
-      <c r="H98" s="19">
-        <v>5.1431490000000003E-2</v>
-      </c>
-      <c r="I98" s="19">
-        <v>4.2770849999999999E-2</v>
+      <c r="D98">
+        <v>4.787222E-2</v>
+      </c>
+      <c r="E98">
+        <v>7.2122140000000001E-2</v>
+      </c>
+      <c r="F98">
+        <v>5.8017939999999997E-2</v>
+      </c>
+      <c r="G98">
+        <v>6.8364250000000001E-2</v>
+      </c>
+      <c r="H98">
+        <v>0.102863</v>
+      </c>
+      <c r="I98">
+        <v>8.5541690000000004E-2</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="19">
-        <v>0.10513400000000001</v>
-      </c>
-      <c r="E99" s="19">
-        <v>0.1313164</v>
-      </c>
-      <c r="F99" s="19">
-        <v>8.1728869999999995E-2</v>
-      </c>
-      <c r="G99" s="19">
-        <v>7.5294780000000006E-2</v>
-      </c>
-      <c r="H99" s="19">
-        <v>9.3636410000000003E-2</v>
-      </c>
-      <c r="I99" s="19">
-        <v>8.5770390000000002E-2</v>
+      <c r="D99">
+        <v>0.21026790000000001</v>
+      </c>
+      <c r="E99">
+        <v>0.15107300000000001</v>
+      </c>
+      <c r="F99">
+        <v>0.16345770000000001</v>
+      </c>
+      <c r="G99">
+        <v>0.15058959999999999</v>
+      </c>
+      <c r="H99">
+        <v>0.18727279999999999</v>
+      </c>
+      <c r="I99">
+        <v>0.1578976</v>
       </c>
     </row>
   </sheetData>
@@ -22950,53 +25285,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B21:BP185"/>
+  <dimension ref="B21:BP212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I148" sqref="I148:K154"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72:L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+    <row r="23" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="12"/>
+    <row r="24" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="22"/>
       <c r="C24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
       <c r="I24" t="s">
         <v>28</v>
       </c>
@@ -23006,8 +25341,11 @@
       <c r="K24" t="s">
         <v>30</v>
       </c>
+      <c r="L24" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="25" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>5</v>
       </c>
@@ -23035,8 +25373,11 @@
       <c r="K25" s="2">
         <v>57.524090000000001</v>
       </c>
+      <c r="L25" s="2">
+        <v>88.960579999999993</v>
+      </c>
     </row>
-    <row r="26" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>10</v>
       </c>
@@ -23064,8 +25405,11 @@
       <c r="K26" s="2">
         <v>77.396119999999996</v>
       </c>
+      <c r="L26" s="2">
+        <v>108.94280000000001</v>
+      </c>
     </row>
-    <row r="27" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>15</v>
       </c>
@@ -23093,8 +25437,11 @@
       <c r="K27" s="2">
         <v>101.60509999999999</v>
       </c>
+      <c r="L27" s="2">
+        <v>170.11320000000001</v>
+      </c>
     </row>
-    <row r="28" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>20</v>
       </c>
@@ -23122,8 +25469,11 @@
       <c r="K28" s="2">
         <v>78.263329999999996</v>
       </c>
+      <c r="L28" s="2">
+        <v>115.5754</v>
+      </c>
     </row>
-    <row r="29" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>25</v>
       </c>
@@ -23151,8 +25501,11 @@
       <c r="K29" s="2">
         <v>112.7208</v>
       </c>
+      <c r="L29" s="2">
+        <v>173.45570000000001</v>
+      </c>
     </row>
-    <row r="30" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>30</v>
       </c>
@@ -23180,48 +25533,51 @@
       <c r="K30" s="4">
         <v>114.60420000000001</v>
       </c>
+      <c r="L30" s="8">
+        <v>177.5384</v>
+      </c>
     </row>
-    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B33" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+    <row r="34" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B34" s="21"/>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
-    <row r="35" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="12"/>
+    <row r="35" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="22"/>
       <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>5</v>
       </c>
@@ -23246,8 +25602,11 @@
       <c r="K36" t="s">
         <v>30</v>
       </c>
+      <c r="L36" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="37" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>10</v>
       </c>
@@ -23275,8 +25634,11 @@
       <c r="K37" s="2">
         <v>7.5844639999999997</v>
       </c>
+      <c r="L37" s="2">
+        <v>9.4318919999999995</v>
+      </c>
     </row>
-    <row r="38" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>15</v>
       </c>
@@ -23304,8 +25666,11 @@
       <c r="K38" s="2">
         <v>8.7975060000000003</v>
       </c>
+      <c r="L38" s="2">
+        <v>10.437568000000001</v>
+      </c>
     </row>
-    <row r="39" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>20</v>
       </c>
@@ -23333,8 +25698,11 @@
       <c r="K39" s="2">
         <v>10.079940000000001</v>
       </c>
+      <c r="L39" s="2">
+        <v>13.042745</v>
+      </c>
     </row>
-    <row r="40" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>25</v>
       </c>
@@ -23362,8 +25730,11 @@
       <c r="K40" s="2">
         <v>8.8466559999999994</v>
       </c>
+      <c r="L40" s="2">
+        <v>10.750598</v>
+      </c>
     </row>
-    <row r="41" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="4">
         <v>30</v>
       </c>
@@ -23391,8 +25762,11 @@
       <c r="K41" s="2">
         <v>10.617010000000001</v>
       </c>
+      <c r="L41" s="2">
+        <v>13.170256999999999</v>
+      </c>
     </row>
-    <row r="42" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H42" s="4">
         <v>30</v>
       </c>
@@ -23405,48 +25779,51 @@
       <c r="K42" s="4">
         <v>10.70534</v>
       </c>
+      <c r="L42" s="8">
+        <v>13.324353</v>
+      </c>
     </row>
-    <row r="43" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
+    <row r="44" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B44" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
+    <row r="45" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
       <c r="C45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
-    <row r="46" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12"/>
+    <row r="46" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="22"/>
       <c r="C46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -23463,7 +25840,7 @@
         <v>41.109160000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>10</v>
       </c>
@@ -23480,7 +25857,7 @@
         <v>41.472920000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>15</v>
       </c>
@@ -23497,7 +25874,7 @@
         <v>42.271500000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>20</v>
       </c>
@@ -23514,7 +25891,7 @@
         <v>42.008369999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>25</v>
       </c>
@@ -23531,7 +25908,7 @@
         <v>41.171390000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4">
         <v>30</v>
       </c>
@@ -23556,112 +25933,130 @@
       <c r="K52" t="s">
         <v>30</v>
       </c>
+      <c r="L52" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="53" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="H53" s="2">
         <v>5</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="15">
         <v>0.109273</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="15">
         <v>0.121119</v>
       </c>
-      <c r="K53" s="8">
+      <c r="K53" s="15">
         <v>0.13368849999999999</v>
       </c>
+      <c r="L53" s="12">
+        <v>0.12730154599999999</v>
+      </c>
     </row>
-    <row r="54" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>37</v>
       </c>
       <c r="H54" s="2">
         <v>10</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="15">
         <v>0.111054</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="15">
         <v>0.129445</v>
       </c>
-      <c r="K54" s="8">
+      <c r="K54" s="15">
         <v>0.12882299999999999</v>
       </c>
+      <c r="L54" s="12">
+        <v>0.110807012</v>
+      </c>
     </row>
-    <row r="55" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H55" s="2">
         <v>15</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="15">
         <v>0.10742699999999999</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="15">
         <v>0.120585</v>
       </c>
-      <c r="K55" s="8">
+      <c r="K55" s="15">
         <v>0.12397660000000001</v>
       </c>
+      <c r="L55" s="12">
+        <v>0.12523478800000001</v>
+      </c>
     </row>
-    <row r="56" spans="2:11" ht="15" x14ac:dyDescent="0.3">
-      <c r="B56" s="20" t="s">
+    <row r="56" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B56" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
       <c r="H56" s="2">
         <v>20</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="15">
         <v>0.112437</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="15">
         <v>0.12554999999999999</v>
       </c>
-      <c r="K56" s="8">
+      <c r="K56" s="15">
         <v>0.1283581</v>
       </c>
+      <c r="L56" s="12">
+        <v>0.122505633</v>
+      </c>
     </row>
-    <row r="57" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="21"/>
+    <row r="57" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="14"/>
       <c r="C57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
       <c r="H57" s="2">
         <v>25</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="15">
         <v>0.117311</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="15">
         <v>0.12322900000000001</v>
       </c>
-      <c r="K57" s="8">
+      <c r="K57" s="15">
         <v>0.12922310000000001</v>
       </c>
+      <c r="L57" s="12">
+        <v>0.12894213900000001</v>
+      </c>
     </row>
-    <row r="58" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="2">
         <v>5</v>
       </c>
@@ -23680,17 +26075,20 @@
       <c r="H58" s="4">
         <v>30</v>
       </c>
-      <c r="I58" s="9">
+      <c r="I58" s="16">
         <v>0.112443</v>
       </c>
-      <c r="J58" s="9">
+      <c r="J58" s="16">
         <v>0.1293</v>
       </c>
-      <c r="K58" s="9">
+      <c r="K58" s="16">
         <v>0.1328116</v>
       </c>
+      <c r="L58" s="12">
+        <v>0.12826991400000001</v>
+      </c>
     </row>
-    <row r="59" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>10</v>
       </c>
@@ -23707,7 +26105,7 @@
         <v>41.486449999999998</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>15</v>
       </c>
@@ -23724,7 +26122,7 @@
         <v>43.185600000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>20</v>
       </c>
@@ -23741,7 +26139,7 @@
         <v>42.956609999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" ht="15" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>25</v>
       </c>
@@ -23758,7 +26156,7 @@
         <v>41.812719999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B63" s="7">
         <v>30</v>
       </c>
@@ -23775,7 +26173,7 @@
         <v>42.890059999999998</v>
       </c>
     </row>
-    <row r="71" spans="8:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:12" x14ac:dyDescent="0.3">
       <c r="I71" t="s">
         <v>28</v>
       </c>
@@ -23785,89 +26183,110 @@
       <c r="K71" t="s">
         <v>30</v>
       </c>
+      <c r="L71" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="72" spans="8:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:12" ht="15" x14ac:dyDescent="0.3">
       <c r="H72" s="2">
         <v>5</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="26">
         <v>40.934579999999997</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72" s="26">
         <v>41.39864</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="26">
         <v>41.109160000000003</v>
       </c>
+      <c r="L72" s="27">
+        <v>41.43741</v>
+      </c>
     </row>
-    <row r="73" spans="8:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:12" ht="15" x14ac:dyDescent="0.3">
       <c r="H73" s="2">
         <v>10</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="26">
         <v>40.780189999999997</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73" s="26">
         <v>41.874769999999998</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="26">
         <v>41.472920000000002</v>
       </c>
+      <c r="L73" s="27">
+        <v>41.486449999999998</v>
+      </c>
     </row>
-    <row r="74" spans="8:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:12" ht="15" x14ac:dyDescent="0.3">
       <c r="H74" s="2">
         <v>15</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="26">
         <v>41.767850000000003</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74" s="26">
         <v>42.274679999999996</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="26">
         <v>42.271500000000003</v>
       </c>
+      <c r="L74" s="27">
+        <v>43.185600000000001</v>
+      </c>
     </row>
-    <row r="75" spans="8:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:12" ht="15" x14ac:dyDescent="0.3">
       <c r="H75" s="2">
         <v>20</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="26">
         <v>41.841450000000002</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75" s="26">
         <v>41.437519999999999</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="26">
         <v>42.008369999999999</v>
       </c>
+      <c r="L75" s="27">
+        <v>42.956609999999998</v>
+      </c>
     </row>
-    <row r="76" spans="8:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:12" ht="15" x14ac:dyDescent="0.3">
       <c r="H76" s="2">
         <v>25</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="26">
         <v>54.972070000000002</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="26">
         <v>40.679989999999997</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="26">
         <v>41.171390000000002</v>
       </c>
+      <c r="L76" s="27">
+        <v>41.812719999999999</v>
+      </c>
     </row>
-    <row r="77" spans="8:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="8:12" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H77" s="4">
         <v>30</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="28">
         <v>95.638859999999994</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="28">
         <v>43.112879999999997</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="28">
         <v>43.758809999999997</v>
+      </c>
+      <c r="L77" s="27">
+        <v>42.890059999999998</v>
       </c>
     </row>
     <row r="92" spans="8:10" x14ac:dyDescent="0.3">
@@ -24030,10 +26449,10 @@
       <c r="H132" s="2">
         <v>5</v>
       </c>
-      <c r="I132" s="22">
-        <v>6.3784999999999994E-2</v>
-      </c>
-      <c r="J132" s="22">
+      <c r="I132" s="1">
+        <v>0.12730154599999999</v>
+      </c>
+      <c r="J132" s="24">
         <v>0.121119</v>
       </c>
     </row>
@@ -24041,10 +26460,10 @@
       <c r="H133" s="2">
         <v>10</v>
       </c>
-      <c r="I133" s="22">
-        <v>7.0308999999999996E-2</v>
-      </c>
-      <c r="J133" s="22">
+      <c r="I133" s="1">
+        <v>0.110807012</v>
+      </c>
+      <c r="J133" s="24">
         <v>0.129445</v>
       </c>
     </row>
@@ -24052,10 +26471,10 @@
       <c r="H134" s="2">
         <v>15</v>
       </c>
-      <c r="I134" s="22">
-        <v>8.6296999999999999E-2</v>
-      </c>
-      <c r="J134" s="22">
+      <c r="I134" s="1">
+        <v>0.12523478800000001</v>
+      </c>
+      <c r="J134" s="24">
         <v>0.120585</v>
       </c>
     </row>
@@ -24063,10 +26482,10 @@
       <c r="H135" s="2">
         <v>20</v>
       </c>
-      <c r="I135" s="22">
-        <v>6.1253000000000002E-2</v>
-      </c>
-      <c r="J135" s="22">
+      <c r="I135" s="1">
+        <v>0.122505633</v>
+      </c>
+      <c r="J135" s="24">
         <v>0.12554999999999999</v>
       </c>
     </row>
@@ -24074,10 +26493,10 @@
       <c r="H136" s="2">
         <v>25</v>
       </c>
-      <c r="I136" s="22">
-        <v>7.5435000000000002E-2</v>
-      </c>
-      <c r="J136" s="22">
+      <c r="I136" s="1">
+        <v>0.12894213900000001</v>
+      </c>
+      <c r="J136" s="24">
         <v>0.12322900000000001</v>
       </c>
     </row>
@@ -24085,10 +26504,10 @@
       <c r="H137" s="7">
         <v>30</v>
       </c>
-      <c r="I137" s="23">
-        <v>6.5076999999999996E-2</v>
-      </c>
-      <c r="J137" s="23">
+      <c r="I137" s="1">
+        <v>0.12826991400000001</v>
+      </c>
+      <c r="J137" s="25">
         <v>0.1293</v>
       </c>
     </row>
@@ -24172,22 +26591,22 @@
       </c>
     </row>
     <row r="162" spans="3:68" x14ac:dyDescent="0.3">
-      <c r="D162" s="18">
+      <c r="D162" s="11">
         <v>0.05</v>
       </c>
-      <c r="E162" s="18">
+      <c r="E162" s="11">
         <v>0.1</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="11">
         <v>0.15</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="11">
         <v>0.2</v>
       </c>
-      <c r="H162" s="18">
+      <c r="H162" s="11">
         <v>0.25</v>
       </c>
-      <c r="I162" s="18">
+      <c r="I162" s="11">
         <v>0.3</v>
       </c>
     </row>
@@ -24195,115 +26614,115 @@
       <c r="C163" t="s">
         <v>4</v>
       </c>
-      <c r="D163" s="19">
-        <v>0.1340983</v>
-      </c>
-      <c r="E163" s="19">
-        <v>0.1063124</v>
-      </c>
-      <c r="F163" s="19">
-        <v>0.13343949999999999</v>
-      </c>
-      <c r="G163" s="19">
-        <v>0.1124883</v>
-      </c>
-      <c r="H163" s="19">
-        <v>9.6517000000000006E-2</v>
-      </c>
-      <c r="I163" s="19">
-        <v>0.1052405</v>
+      <c r="D163" s="1">
+        <v>0.26819660000000001</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0.2126247</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0.26687889999999997</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0.2249767</v>
+      </c>
+      <c r="H163" s="1">
+        <v>0.19303400000000001</v>
+      </c>
+      <c r="I163" s="1">
+        <v>0.210481</v>
       </c>
     </row>
     <row r="164" spans="3:68" x14ac:dyDescent="0.3">
       <c r="C164" t="s">
         <v>5</v>
       </c>
-      <c r="D164" s="19">
-        <v>0.149758</v>
-      </c>
-      <c r="E164" s="19">
-        <v>9.3088039999999997E-2</v>
-      </c>
-      <c r="F164" s="19">
-        <v>0.32773849999999999</v>
-      </c>
-      <c r="G164" s="19">
-        <v>0.12225750000000001</v>
-      </c>
-      <c r="H164" s="19">
-        <v>0.1777349</v>
-      </c>
-      <c r="I164" s="19">
-        <v>0.11119039999999999</v>
+      <c r="D164" s="1">
+        <v>0.299516</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0.18617610000000001</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0.21944949999999999</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0.24451500000000001</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0.23765539999999999</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0.22238079999999999</v>
       </c>
     </row>
     <row r="165" spans="3:68" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>6</v>
       </c>
-      <c r="D165" s="19">
-        <v>5.0644910000000001E-2</v>
-      </c>
-      <c r="E165" s="19">
-        <v>0.1588936</v>
-      </c>
-      <c r="F165" s="19">
-        <v>6.3974260000000005E-2</v>
-      </c>
-      <c r="G165" s="19">
-        <v>8.0326400000000006E-2</v>
-      </c>
-      <c r="H165" s="19">
-        <v>7.3500339999999997E-2</v>
-      </c>
-      <c r="I165" s="19">
-        <v>6.9382680000000002E-2</v>
+      <c r="D165" s="1">
+        <v>0.1012898</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0.1312449</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0.12794849999999999</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0.16065280000000001</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0.14700070000000001</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0.13876540000000001</v>
       </c>
     </row>
     <row r="166" spans="3:68" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="19">
-        <v>0.1058014</v>
-      </c>
-      <c r="E166" s="19">
-        <v>8.7722949999999994E-2</v>
-      </c>
-      <c r="F166" s="19">
-        <v>0.1040697</v>
-      </c>
-      <c r="G166" s="19">
-        <v>8.9259820000000004E-2</v>
-      </c>
-      <c r="H166" s="19">
-        <v>7.7486849999999996E-2</v>
-      </c>
-      <c r="I166" s="19">
-        <v>8.6358279999999996E-2</v>
+      <c r="D166" s="1">
+        <v>0.21160290000000001</v>
+      </c>
+      <c r="E166" s="1">
+        <v>0.17544589999999999</v>
+      </c>
+      <c r="F166" s="1">
+        <v>0.20813950000000001</v>
+      </c>
+      <c r="G166" s="1">
+        <v>0.1785196</v>
+      </c>
+      <c r="H166" s="1">
+        <v>0.15497369999999999</v>
+      </c>
+      <c r="I166" s="1">
+        <v>0.1727166</v>
       </c>
     </row>
     <row r="167" spans="3:68" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="19">
-        <v>8.8788070000000007E-3</v>
-      </c>
-      <c r="E167" s="19">
-        <v>1.8540500000000001E-2</v>
-      </c>
-      <c r="F167" s="19">
-        <v>2.4035910000000001E-2</v>
-      </c>
-      <c r="G167" s="19">
-        <v>1.864327E-2</v>
-      </c>
-      <c r="H167" s="19">
-        <v>3.3284010000000003E-2</v>
-      </c>
-      <c r="I167" s="19">
-        <v>3.8830759999999999E-2</v>
+      <c r="D167" s="1">
+        <v>1.775761E-2</v>
+      </c>
+      <c r="E167" s="1">
+        <v>3.7081000000000003E-2</v>
+      </c>
+      <c r="F167" s="1">
+        <v>4.8071830000000003E-2</v>
+      </c>
+      <c r="G167" s="1">
+        <v>3.7286529999999998E-2</v>
+      </c>
+      <c r="H167" s="1">
+        <v>6.6568020000000006E-2</v>
+      </c>
+      <c r="I167" s="1">
+        <v>7.7661510000000003E-2</v>
       </c>
       <c r="BM167">
         <v>30</v>
@@ -24313,23 +26732,23 @@
       <c r="C168" t="s">
         <v>9</v>
       </c>
-      <c r="D168" s="19">
-        <v>9.7609250000000002E-3</v>
-      </c>
-      <c r="E168" s="19">
-        <v>1.9558269999999999E-2</v>
-      </c>
-      <c r="F168" s="19">
-        <v>2.3217979999999999E-2</v>
-      </c>
-      <c r="G168" s="19">
-        <v>1.8208329999999998E-2</v>
-      </c>
-      <c r="H168" s="19">
-        <v>8.2857230000000004E-2</v>
-      </c>
-      <c r="I168" s="19">
-        <v>3.54953E-2</v>
+      <c r="D168" s="1">
+        <v>1.684567E-2</v>
+      </c>
+      <c r="E168" s="1">
+        <v>3.9116539999999998E-2</v>
+      </c>
+      <c r="F168" s="1">
+        <v>4.6435959999999998E-2</v>
+      </c>
+      <c r="G168" s="1">
+        <v>3.6416650000000002E-2</v>
+      </c>
+      <c r="H168" s="1">
+        <v>6.4253350000000001E-2</v>
+      </c>
+      <c r="I168" s="1">
+        <v>6.5789710000000001E-2</v>
       </c>
       <c r="BA168">
         <v>25</v>
@@ -24348,23 +26767,23 @@
       <c r="C169" t="s">
         <v>10</v>
       </c>
-      <c r="D169" s="19">
-        <v>1.9179180000000001E-2</v>
-      </c>
-      <c r="E169" s="19">
-        <v>2.481529E-2</v>
-      </c>
-      <c r="F169" s="19">
-        <v>4.350938E-2</v>
-      </c>
-      <c r="G169" s="19">
-        <v>2.6567629999999998E-2</v>
-      </c>
-      <c r="H169" s="19">
-        <v>3.4418020000000001E-2</v>
-      </c>
-      <c r="I169" s="19">
-        <v>3.6115479999999998E-2</v>
+      <c r="D169" s="1">
+        <v>3.8358360000000001E-2</v>
+      </c>
+      <c r="E169" s="1">
+        <v>4.9630590000000002E-2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>4.9446190000000001E-2</v>
+      </c>
+      <c r="G169" s="1">
+        <v>5.3135269999999998E-2</v>
+      </c>
+      <c r="H169" s="1">
+        <v>6.8836040000000001E-2</v>
+      </c>
+      <c r="I169" s="1">
+        <v>7.2230959999999997E-2</v>
       </c>
       <c r="AF169">
         <v>15</v>
@@ -24384,8 +26803,8 @@
       <c r="BM169" t="s">
         <v>4</v>
       </c>
-      <c r="BN169" s="19">
-        <v>0.1052405</v>
+      <c r="BN169" s="1">
+        <v>0.210481</v>
       </c>
       <c r="BO169" s="1">
         <v>0.19266559999999999</v>
@@ -24395,23 +26814,23 @@
       <c r="C170" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="19">
-        <v>3.06542E-2</v>
-      </c>
-      <c r="E170" s="19">
-        <v>2.677763E-2</v>
-      </c>
-      <c r="F170" s="19">
-        <v>3.2250929999999997E-2</v>
-      </c>
-      <c r="G170" s="19">
-        <v>3.529997E-2</v>
-      </c>
-      <c r="H170" s="19">
-        <v>3.3482190000000002E-2</v>
-      </c>
-      <c r="I170" s="19">
-        <v>3.9616930000000002E-2</v>
+      <c r="D170" s="1">
+        <v>6.1308399999999999E-2</v>
+      </c>
+      <c r="E170" s="1">
+        <v>5.3555249999999999E-2</v>
+      </c>
+      <c r="F170" s="1">
+        <v>6.4501859999999994E-2</v>
+      </c>
+      <c r="G170" s="1">
+        <v>7.0599930000000005E-2</v>
+      </c>
+      <c r="H170" s="1">
+        <v>6.6964380000000004E-2</v>
+      </c>
+      <c r="I170" s="1">
+        <v>7.9233869999999998E-2</v>
       </c>
       <c r="N170">
         <v>5</v>
@@ -24440,8 +26859,8 @@
       <c r="BA170" t="s">
         <v>4</v>
       </c>
-      <c r="BB170" s="19">
-        <v>9.6517000000000006E-2</v>
+      <c r="BB170" s="1">
+        <v>0.19303400000000001</v>
       </c>
       <c r="BC170" s="1">
         <v>0.21251410000000001</v>
@@ -24449,8 +26868,8 @@
       <c r="BM170" t="s">
         <v>5</v>
       </c>
-      <c r="BN170" s="19">
-        <v>0.11119039999999999</v>
+      <c r="BN170" s="1">
+        <v>0.22238079999999999</v>
       </c>
       <c r="BO170" s="1">
         <v>0.22782540000000001</v>
@@ -24460,23 +26879,23 @@
       <c r="C171" t="s">
         <v>12</v>
       </c>
-      <c r="D171" s="19">
-        <v>2.393611E-2</v>
-      </c>
-      <c r="E171" s="19">
-        <v>3.6061070000000001E-2</v>
-      </c>
-      <c r="F171" s="19">
-        <v>2.9008969999999999E-2</v>
-      </c>
-      <c r="G171" s="19">
-        <v>3.4182129999999998E-2</v>
-      </c>
-      <c r="H171" s="19">
-        <v>5.1431490000000003E-2</v>
-      </c>
-      <c r="I171" s="19">
-        <v>4.2770849999999999E-2</v>
+      <c r="D171" s="1">
+        <v>4.787222E-2</v>
+      </c>
+      <c r="E171" s="1">
+        <v>7.2122140000000001E-2</v>
+      </c>
+      <c r="F171" s="1">
+        <v>5.8017939999999997E-2</v>
+      </c>
+      <c r="G171" s="1">
+        <v>6.8364250000000001E-2</v>
+      </c>
+      <c r="H171" s="1">
+        <v>0.102863</v>
+      </c>
+      <c r="I171" s="1">
+        <v>8.5541690000000004E-2</v>
       </c>
       <c r="N171" t="s">
         <v>40</v>
@@ -24499,8 +26918,8 @@
       <c r="AF171" t="s">
         <v>4</v>
       </c>
-      <c r="AG171" s="19">
-        <v>0.13343949999999999</v>
+      <c r="AG171" s="1">
+        <v>0.26687889999999997</v>
       </c>
       <c r="AH171" s="1">
         <v>0.18255170000000001</v>
@@ -24508,8 +26927,8 @@
       <c r="AP171" t="s">
         <v>4</v>
       </c>
-      <c r="AQ171" s="19">
-        <v>0.1124883</v>
+      <c r="AQ171" s="1">
+        <v>0.2249767</v>
       </c>
       <c r="AR171" s="1">
         <v>0.2556794</v>
@@ -24517,8 +26936,8 @@
       <c r="BA171" t="s">
         <v>5</v>
       </c>
-      <c r="BB171" s="19">
-        <v>0.1777349</v>
+      <c r="BB171" s="1">
+        <v>0.23765539999999999</v>
       </c>
       <c r="BC171" s="1">
         <v>0.18203569999999999</v>
@@ -24526,8 +26945,8 @@
       <c r="BM171" t="s">
         <v>6</v>
       </c>
-      <c r="BN171" s="19">
-        <v>6.9382680000000002E-2</v>
+      <c r="BN171" s="1">
+        <v>0.13876540000000001</v>
       </c>
       <c r="BO171" s="1">
         <v>0.14149220000000001</v>
@@ -24537,29 +26956,29 @@
       <c r="C172" t="s">
         <v>13</v>
       </c>
-      <c r="D172" s="19">
-        <v>0.10513400000000001</v>
-      </c>
-      <c r="E172" s="19">
-        <v>0.1313164</v>
-      </c>
-      <c r="F172" s="19">
-        <v>8.1728869999999995E-2</v>
-      </c>
-      <c r="G172" s="19">
-        <v>7.5294780000000006E-2</v>
-      </c>
-      <c r="H172" s="19">
-        <v>9.3636410000000003E-2</v>
-      </c>
-      <c r="I172" s="19">
-        <v>8.5770390000000002E-2</v>
+      <c r="D172" s="1">
+        <v>0.21026790000000001</v>
+      </c>
+      <c r="E172" s="1">
+        <v>0.15107300000000001</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0.16345770000000001</v>
+      </c>
+      <c r="G172" s="1">
+        <v>0.15058959999999999</v>
+      </c>
+      <c r="H172" s="1">
+        <v>0.18727279999999999</v>
+      </c>
+      <c r="I172" s="1">
+        <v>0.1578976</v>
       </c>
       <c r="M172" t="s">
         <v>4</v>
       </c>
-      <c r="N172" s="19">
-        <v>0.1340983</v>
+      <c r="N172" s="1">
+        <v>0.26819660000000001</v>
       </c>
       <c r="O172" s="1">
         <v>0.2095339</v>
@@ -24567,8 +26986,8 @@
       <c r="S172" t="s">
         <v>4</v>
       </c>
-      <c r="T172" s="19">
-        <v>0.1063124</v>
+      <c r="T172" s="1">
+        <v>0.2126247</v>
       </c>
       <c r="U172" s="1">
         <v>0.24885119999999999</v>
@@ -24576,8 +26995,8 @@
       <c r="AF172" t="s">
         <v>5</v>
       </c>
-      <c r="AG172" s="19">
-        <v>0.32773849999999999</v>
+      <c r="AG172" s="1">
+        <v>0.21944949999999999</v>
       </c>
       <c r="AH172" s="1">
         <v>0.21216409999999999</v>
@@ -24585,8 +27004,8 @@
       <c r="AP172" t="s">
         <v>5</v>
       </c>
-      <c r="AQ172" s="19">
-        <v>0.12225750000000001</v>
+      <c r="AQ172" s="1">
+        <v>0.24451500000000001</v>
       </c>
       <c r="AR172" s="1">
         <v>0.22410840000000001</v>
@@ -24594,8 +27013,8 @@
       <c r="BA172" t="s">
         <v>6</v>
       </c>
-      <c r="BB172" s="19">
-        <v>7.3500339999999997E-2</v>
+      <c r="BB172" s="1">
+        <v>0.14700070000000001</v>
       </c>
       <c r="BC172" s="1">
         <v>0.13608770000000001</v>
@@ -24603,8 +27022,8 @@
       <c r="BM172" t="s">
         <v>7</v>
       </c>
-      <c r="BN172" s="19">
-        <v>8.6358279999999996E-2</v>
+      <c r="BN172" s="1">
+        <v>0.1727166</v>
       </c>
       <c r="BO172" s="1">
         <v>0.14898239999999999</v>
@@ -24614,8 +27033,8 @@
       <c r="M173" t="s">
         <v>5</v>
       </c>
-      <c r="N173" s="19">
-        <v>0.149758</v>
+      <c r="N173" s="1">
+        <v>0.299516</v>
       </c>
       <c r="O173" s="1">
         <v>0.2640885</v>
@@ -24623,8 +27042,8 @@
       <c r="S173" t="s">
         <v>5</v>
       </c>
-      <c r="T173" s="19">
-        <v>9.3088039999999997E-2</v>
+      <c r="T173" s="1">
+        <v>0.18617610000000001</v>
       </c>
       <c r="U173" s="1">
         <v>0.2594205</v>
@@ -24632,8 +27051,8 @@
       <c r="AF173" t="s">
         <v>6</v>
       </c>
-      <c r="AG173" s="19">
-        <v>6.3974260000000005E-2</v>
+      <c r="AG173" s="1">
+        <v>0.12794849999999999</v>
       </c>
       <c r="AH173" s="1">
         <v>0.12767410000000001</v>
@@ -24641,8 +27060,8 @@
       <c r="AP173" t="s">
         <v>6</v>
       </c>
-      <c r="AQ173" s="19">
-        <v>8.0326400000000006E-2</v>
+      <c r="AQ173" s="1">
+        <v>0.16065280000000001</v>
       </c>
       <c r="AR173" s="1">
         <v>0.13457350000000001</v>
@@ -24650,8 +27069,8 @@
       <c r="BA173" t="s">
         <v>7</v>
       </c>
-      <c r="BB173" s="19">
-        <v>7.7486849999999996E-2</v>
+      <c r="BB173" s="1">
+        <v>0.15497369999999999</v>
       </c>
       <c r="BC173" s="1">
         <v>0.12383959999999999</v>
@@ -24659,8 +27078,8 @@
       <c r="BM173" t="s">
         <v>8</v>
       </c>
-      <c r="BN173" s="19">
-        <v>3.8830759999999999E-2</v>
+      <c r="BN173" s="1">
+        <v>7.7661510000000003E-2</v>
       </c>
       <c r="BO173" s="1">
         <v>8.2384250000000006E-2</v>
@@ -24673,8 +27092,8 @@
       <c r="M174" t="s">
         <v>6</v>
       </c>
-      <c r="N174" s="19">
-        <v>5.0644910000000001E-2</v>
+      <c r="N174" s="1">
+        <v>0.1012898</v>
       </c>
       <c r="O174" s="1">
         <v>0.16488610000000001</v>
@@ -24682,8 +27101,8 @@
       <c r="S174" t="s">
         <v>6</v>
       </c>
-      <c r="T174" s="19">
-        <v>0.1588936</v>
+      <c r="T174" s="1">
+        <v>0.1312449</v>
       </c>
       <c r="U174" s="1">
         <v>0.1100003</v>
@@ -24691,8 +27110,8 @@
       <c r="AF174" t="s">
         <v>7</v>
       </c>
-      <c r="AG174" s="19">
-        <v>0.1040697</v>
+      <c r="AG174" s="1">
+        <v>0.20813950000000001</v>
       </c>
       <c r="AH174" s="1">
         <v>0.16732069999999999</v>
@@ -24700,8 +27119,8 @@
       <c r="AP174" t="s">
         <v>7</v>
       </c>
-      <c r="AQ174" s="19">
-        <v>8.9259820000000004E-2</v>
+      <c r="AQ174" s="1">
+        <v>0.1785196</v>
       </c>
       <c r="AR174" s="1">
         <v>0.13675129999999999</v>
@@ -24709,8 +27128,8 @@
       <c r="BA174" t="s">
         <v>8</v>
       </c>
-      <c r="BB174" s="19">
-        <v>3.3284010000000003E-2</v>
+      <c r="BB174" s="1">
+        <v>6.6568020000000006E-2</v>
       </c>
       <c r="BC174" s="1">
         <v>7.8081120000000004E-2</v>
@@ -24718,37 +27137,37 @@
       <c r="BM174" t="s">
         <v>9</v>
       </c>
-      <c r="BN174" s="19">
-        <v>3.54953E-2</v>
+      <c r="BN174" s="1">
+        <v>6.5789710000000001E-2</v>
       </c>
       <c r="BO174" s="1">
         <v>6.4410529999999994E-2</v>
       </c>
     </row>
     <row r="175" spans="3:68" x14ac:dyDescent="0.3">
-      <c r="D175" s="18">
+      <c r="D175" s="11">
         <v>0.05</v>
       </c>
-      <c r="E175" s="18">
+      <c r="E175" s="11">
         <v>0.1</v>
       </c>
-      <c r="F175" s="18">
+      <c r="F175" s="11">
         <v>0.15</v>
       </c>
-      <c r="G175" s="18">
+      <c r="G175" s="11">
         <v>0.2</v>
       </c>
-      <c r="H175" s="18">
+      <c r="H175" s="11">
         <v>0.25</v>
       </c>
-      <c r="I175" s="18">
+      <c r="I175" s="11">
         <v>0.3</v>
       </c>
       <c r="M175" t="s">
         <v>7</v>
       </c>
-      <c r="N175" s="19">
-        <v>0.1058014</v>
+      <c r="N175" s="1">
+        <v>0.21160290000000001</v>
       </c>
       <c r="O175" s="1">
         <v>0.1343029</v>
@@ -24756,8 +27175,8 @@
       <c r="S175" t="s">
         <v>7</v>
       </c>
-      <c r="T175" s="19">
-        <v>8.7722949999999994E-2</v>
+      <c r="T175" s="1">
+        <v>0.17544589999999999</v>
       </c>
       <c r="U175" s="1">
         <v>0.1956968</v>
@@ -24765,8 +27184,8 @@
       <c r="AF175" t="s">
         <v>8</v>
       </c>
-      <c r="AG175" s="19">
-        <v>2.4035910000000001E-2</v>
+      <c r="AG175" s="1">
+        <v>4.8071830000000003E-2</v>
       </c>
       <c r="AH175" s="1">
         <v>5.7578999999999998E-2</v>
@@ -24774,8 +27193,8 @@
       <c r="AP175" t="s">
         <v>8</v>
       </c>
-      <c r="AQ175" s="19">
-        <v>1.864327E-2</v>
+      <c r="AQ175" s="1">
+        <v>3.7286529999999998E-2</v>
       </c>
       <c r="AR175" s="1">
         <v>5.2446069999999997E-2</v>
@@ -24783,8 +27202,8 @@
       <c r="BA175" t="s">
         <v>9</v>
       </c>
-      <c r="BB175" s="19">
-        <v>8.2857230000000004E-2</v>
+      <c r="BB175" s="1">
+        <v>6.4253350000000001E-2</v>
       </c>
       <c r="BC175" s="1">
         <v>7.2223270000000006E-2</v>
@@ -24792,8 +27211,8 @@
       <c r="BM175" t="s">
         <v>10</v>
       </c>
-      <c r="BN175" s="19">
-        <v>3.6115479999999998E-2</v>
+      <c r="BN175" s="1">
+        <v>7.2230959999999997E-2</v>
       </c>
       <c r="BO175" s="1">
         <v>8.6571949999999995E-2</v>
@@ -24824,8 +27243,8 @@
       <c r="M176" t="s">
         <v>8</v>
       </c>
-      <c r="N176" s="19">
-        <v>8.8788070000000007E-3</v>
+      <c r="N176" s="1">
+        <v>1.775761E-2</v>
       </c>
       <c r="O176" s="1">
         <v>1.949992E-2</v>
@@ -24833,8 +27252,8 @@
       <c r="S176" t="s">
         <v>8</v>
       </c>
-      <c r="T176" s="19">
-        <v>1.8540500000000001E-2</v>
+      <c r="T176" s="1">
+        <v>3.7081000000000003E-2</v>
       </c>
       <c r="U176" s="1">
         <v>3.8791819999999998E-2</v>
@@ -24842,8 +27261,8 @@
       <c r="AF176" t="s">
         <v>9</v>
       </c>
-      <c r="AG176" s="19">
-        <v>2.3217979999999999E-2</v>
+      <c r="AG176" s="1">
+        <v>4.6435959999999998E-2</v>
       </c>
       <c r="AH176" s="1">
         <v>5.1312759999999999E-2</v>
@@ -24851,8 +27270,8 @@
       <c r="AP176" t="s">
         <v>9</v>
       </c>
-      <c r="AQ176" s="19">
-        <v>1.8208329999999998E-2</v>
+      <c r="AQ176" s="1">
+        <v>3.6416650000000002E-2</v>
       </c>
       <c r="AR176" s="1">
         <v>4.5116539999999997E-2</v>
@@ -24860,8 +27279,8 @@
       <c r="BA176" t="s">
         <v>10</v>
       </c>
-      <c r="BB176" s="19">
-        <v>3.4418020000000001E-2</v>
+      <c r="BB176" s="1">
+        <v>6.8836040000000001E-2</v>
       </c>
       <c r="BC176" s="1">
         <v>8.5495650000000006E-2</v>
@@ -24869,8 +27288,8 @@
       <c r="BM176" t="s">
         <v>11</v>
       </c>
-      <c r="BN176" s="19">
-        <v>3.9616930000000002E-2</v>
+      <c r="BN176" s="1">
+        <v>7.9233869999999998E-2</v>
       </c>
       <c r="BO176" s="1">
         <v>7.8393969999999993E-2</v>
@@ -24901,8 +27320,8 @@
       <c r="M177" t="s">
         <v>9</v>
       </c>
-      <c r="N177" s="19">
-        <v>9.7609250000000002E-3</v>
+      <c r="N177" s="1">
+        <v>1.684567E-2</v>
       </c>
       <c r="O177" s="1">
         <v>2.5552140000000001E-2</v>
@@ -24910,8 +27329,8 @@
       <c r="S177" t="s">
         <v>9</v>
       </c>
-      <c r="T177" s="19">
-        <v>1.9558269999999999E-2</v>
+      <c r="T177" s="1">
+        <v>3.9116539999999998E-2</v>
       </c>
       <c r="U177" s="1">
         <v>4.7358310000000001E-2</v>
@@ -24919,8 +27338,8 @@
       <c r="AF177" t="s">
         <v>10</v>
       </c>
-      <c r="AG177" s="19">
-        <v>4.350938E-2</v>
+      <c r="AG177" s="1">
+        <v>4.9446190000000001E-2</v>
       </c>
       <c r="AH177" s="1">
         <v>5.7726109999999997E-2</v>
@@ -24928,8 +27347,8 @@
       <c r="AP177" t="s">
         <v>10</v>
       </c>
-      <c r="AQ177" s="19">
-        <v>2.6567629999999998E-2</v>
+      <c r="AQ177" s="1">
+        <v>5.3135269999999998E-2</v>
       </c>
       <c r="AR177" s="1">
         <v>7.4655299999999994E-2</v>
@@ -24937,8 +27356,8 @@
       <c r="BA177" t="s">
         <v>11</v>
       </c>
-      <c r="BB177" s="19">
-        <v>3.3482190000000002E-2</v>
+      <c r="BB177" s="1">
+        <v>6.6964380000000004E-2</v>
       </c>
       <c r="BC177" s="1">
         <v>7.3404789999999998E-2</v>
@@ -24946,8 +27365,8 @@
       <c r="BM177" t="s">
         <v>12</v>
       </c>
-      <c r="BN177" s="19">
-        <v>4.2770849999999999E-2</v>
+      <c r="BN177" s="1">
+        <v>8.5541690000000004E-2</v>
       </c>
       <c r="BO177" s="1">
         <v>0.11332929999999999</v>
@@ -24978,8 +27397,8 @@
       <c r="M178" t="s">
         <v>10</v>
       </c>
-      <c r="N178" s="19">
-        <v>1.9179180000000001E-2</v>
+      <c r="N178" s="1">
+        <v>3.8358360000000001E-2</v>
       </c>
       <c r="O178" s="1">
         <v>5.8987709999999999E-2</v>
@@ -24987,8 +27406,8 @@
       <c r="S178" t="s">
         <v>10</v>
       </c>
-      <c r="T178" s="19">
-        <v>2.481529E-2</v>
+      <c r="T178" s="1">
+        <v>4.9630590000000002E-2</v>
       </c>
       <c r="U178" s="1">
         <v>6.9502480000000005E-2</v>
@@ -24996,8 +27415,8 @@
       <c r="AF178" t="s">
         <v>11</v>
       </c>
-      <c r="AG178" s="19">
-        <v>3.2250929999999997E-2</v>
+      <c r="AG178" s="1">
+        <v>6.4501859999999994E-2</v>
       </c>
       <c r="AH178" s="1">
         <v>8.2383849999999995E-2</v>
@@ -25005,8 +27424,8 @@
       <c r="AP178" t="s">
         <v>11</v>
       </c>
-      <c r="AQ178" s="19">
-        <v>3.529997E-2</v>
+      <c r="AQ178" s="1">
+        <v>7.0599930000000005E-2</v>
       </c>
       <c r="AR178" s="1">
         <v>6.9326659999999998E-2</v>
@@ -25014,8 +27433,8 @@
       <c r="BA178" t="s">
         <v>12</v>
       </c>
-      <c r="BB178" s="19">
-        <v>5.1431490000000003E-2</v>
+      <c r="BB178" s="1">
+        <v>0.102863</v>
       </c>
       <c r="BC178" s="1">
         <v>9.2610940000000003E-2</v>
@@ -25023,8 +27442,8 @@
       <c r="BM178" t="s">
         <v>13</v>
       </c>
-      <c r="BN178" s="19">
-        <v>8.5770390000000002E-2</v>
+      <c r="BN178" s="1">
+        <v>0.1578976</v>
       </c>
       <c r="BO178" s="1">
         <v>0.15694379999999999</v>
@@ -25055,8 +27474,8 @@
       <c r="M179" t="s">
         <v>11</v>
       </c>
-      <c r="N179" s="19">
-        <v>3.06542E-2</v>
+      <c r="N179" s="1">
+        <v>6.1308399999999999E-2</v>
       </c>
       <c r="O179" s="1">
         <v>7.9242279999999998E-2</v>
@@ -25064,8 +27483,8 @@
       <c r="S179" t="s">
         <v>11</v>
       </c>
-      <c r="T179" s="19">
-        <v>2.677763E-2</v>
+      <c r="T179" s="1">
+        <v>5.3555249999999999E-2</v>
       </c>
       <c r="U179" s="1">
         <v>6.2647220000000003E-2</v>
@@ -25073,8 +27492,8 @@
       <c r="AF179" t="s">
         <v>12</v>
       </c>
-      <c r="AG179" s="19">
-        <v>2.9008969999999999E-2</v>
+      <c r="AG179" s="1">
+        <v>5.8017939999999997E-2</v>
       </c>
       <c r="AH179" s="1">
         <v>7.5868160000000004E-2</v>
@@ -25082,8 +27501,8 @@
       <c r="AP179" t="s">
         <v>12</v>
       </c>
-      <c r="AQ179" s="19">
-        <v>3.4182129999999998E-2</v>
+      <c r="AQ179" s="1">
+        <v>6.8364250000000001E-2</v>
       </c>
       <c r="AR179" s="1">
         <v>8.0839729999999999E-2</v>
@@ -25091,8 +27510,8 @@
       <c r="BA179" t="s">
         <v>13</v>
       </c>
-      <c r="BB179" s="19">
-        <v>9.3636410000000003E-2</v>
+      <c r="BB179" s="1">
+        <v>0.18727279999999999</v>
       </c>
       <c r="BC179" s="1">
         <v>0.17599329999999999</v>
@@ -25123,8 +27542,8 @@
       <c r="M180" t="s">
         <v>12</v>
       </c>
-      <c r="N180" s="19">
-        <v>2.393611E-2</v>
+      <c r="N180" s="1">
+        <v>4.787222E-2</v>
       </c>
       <c r="O180" s="1">
         <v>6.6218840000000001E-2</v>
@@ -25132,8 +27551,8 @@
       <c r="S180" t="s">
         <v>12</v>
       </c>
-      <c r="T180" s="19">
-        <v>3.6061070000000001E-2</v>
+      <c r="T180" s="1">
+        <v>7.2122140000000001E-2</v>
       </c>
       <c r="U180" s="1">
         <v>6.7156560000000004E-2</v>
@@ -25141,8 +27560,8 @@
       <c r="AF180" t="s">
         <v>13</v>
       </c>
-      <c r="AG180" s="19">
-        <v>8.1728869999999995E-2</v>
+      <c r="AG180" s="1">
+        <v>0.16345770000000001</v>
       </c>
       <c r="AH180" s="1">
         <v>0.1912712</v>
@@ -25150,8 +27569,8 @@
       <c r="AP180" t="s">
         <v>13</v>
       </c>
-      <c r="AQ180" s="19">
-        <v>7.5294780000000006E-2</v>
+      <c r="AQ180" s="1">
+        <v>0.15058959999999999</v>
       </c>
       <c r="AR180" s="1">
         <v>0.18200079999999999</v>
@@ -25182,8 +27601,8 @@
       <c r="M181" t="s">
         <v>13</v>
       </c>
-      <c r="N181" s="19">
-        <v>0.10513400000000001</v>
+      <c r="N181" s="1">
+        <v>0.21026790000000001</v>
       </c>
       <c r="O181" s="1">
         <v>0.18887870000000001</v>
@@ -25191,8 +27610,8 @@
       <c r="S181" t="s">
         <v>13</v>
       </c>
-      <c r="T181" s="19">
-        <v>0.1313164</v>
+      <c r="T181" s="1">
+        <v>0.15107300000000001</v>
       </c>
       <c r="U181" s="1">
         <v>0.1950247</v>
@@ -25290,15 +27709,68 @@
         <v>0.15694379999999999</v>
       </c>
     </row>
+    <row r="191" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="D191" s="23"/>
+    </row>
+    <row r="192" spans="3:67" x14ac:dyDescent="0.3">
+      <c r="D192" s="23"/>
+    </row>
+    <row r="193" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D193" s="23"/>
+    </row>
+    <row r="194" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D194" s="23"/>
+    </row>
+    <row r="195" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D195" s="23"/>
+    </row>
+    <row r="196" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D196" s="23"/>
+    </row>
+    <row r="197" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D197" s="23"/>
+    </row>
+    <row r="198" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D198" s="23"/>
+    </row>
+    <row r="199" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D199" s="23"/>
+    </row>
+    <row r="200" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D200" s="23"/>
+    </row>
+    <row r="203" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H212" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="F44:F46"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="E22:E24"/>
@@ -25307,8 +27779,16 @@
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="F33:F35"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>